--- a/BillOfMaterials.xlsx
+++ b/BillOfMaterials.xlsx
@@ -5,93 +5,120 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Mechanical:</t>
-  </si>
-  <si>
-    <t>1/2" Shaft Diameter Torque Limiting Couplings</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#torque-limiting-couplings/=124vc8c</t>
-  </si>
-  <si>
-    <t>Offered in 25, 50, 75, 100, 125 in-lb versions, can be adjusted +/- 10% of value</t>
-  </si>
-  <si>
-    <t>100:1 Gearbox with BAG Motor</t>
-  </si>
-  <si>
-    <t>http://www.vexrobotics.com/vexpro/motion/gearboxes/versaplanetary.html</t>
-  </si>
-  <si>
-    <t>Modular if we ever need to change ratio, though that seems unlikely.</t>
-  </si>
-  <si>
-    <t>Bearing Blocks, 1/2"</t>
-  </si>
-  <si>
-    <t>Acme 3/4"-10 Threaded Rod</t>
-  </si>
-  <si>
-    <t>3/4"-10 Threaded Rod Nut</t>
-  </si>
-  <si>
-    <t>If necessary; current nut should be compatible, but who knows</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>This is a guess, hopefully is less than this</t>
-  </si>
-  <si>
-    <t>Misc Hardware</t>
-  </si>
-  <si>
-    <t>Vex Shipping</t>
-  </si>
-  <si>
-    <t>Subtotal:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2" Shaft Diameter Torque Limiting Couplings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mcmaster.com/#torque-limiting-couplings/=124vc8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offered in 25, 50, 75, 100, 125 in-lb versions, can be adjusted +/- 10% of value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100:1 Gearbox with BAG Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.vexrobotics.com/vexpro/motion/gearboxes/versaplanetary.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular if we ever need to change ratio, though that seems unlikely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bearing Blocks, 1/2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acme 3/4"-10 Threaded Rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This threaded rod is overkill; we need to select a much cheaper one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4"-10 Threaded Rod Nut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This nut is also overkill: we need to select a cheaper one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a guess, hopefully is less than this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misc Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stainless steel cap head screws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vex Shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.250 1/4" Mill Finish Aluminum Sheet Plate 6061 12" x 24"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be narrower, and probably less thick.  We bought ours off of ebay for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100’ Flexible stainless steel cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3461T633 18-8 Stainless Steel Wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home center cable isn’t really flexible enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtotal:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -115,24 +142,60 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="12"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -178,29 +241,81 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -220,20 +335,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -253,179 +371,226 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="10" customFormat="true" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="D3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="n">
         <f aca="false">C3*D3</f>
         <v>80</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="10" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="7" t="n">
         <v>110</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="n">
         <f aca="false">C4*D4</f>
         <v>110</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="10" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="6" t="str">
         <f aca="false">HYPERLINK("http://www.mcmaster.com/#3813T12","http://www.mcmaster.com/#3813T12")</f>
         <v>http://www.mcmaster.com/#3813T12</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="7" t="n">
         <v>6.51</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="9" t="n">
         <f aca="false">C5*D5</f>
         <v>13.02</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="0"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="6" t="str">
         <f aca="false">HYPERLINK("http://www.mcmaster.com/#99030A030","http://www.mcmaster.com/#99030A030")</f>
         <v>http://www.mcmaster.com/#99030A030</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="7" t="n">
         <v>32.98</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="D6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="n">
         <f aca="false">C6*D6</f>
         <v>32.98</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="str">
+    </row>
+    <row r="7" s="10" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="str">
         <f aca="false">HYPERLINK("http://www.mcmaster.com/#95365A526","http://www.mcmaster.com/#95365A526")</f>
         <v>http://www.mcmaster.com/#95365A526</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="7" t="n">
         <v>40.5</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="n">
+      <c r="D7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="n">
         <f aca="false">C7*D7</f>
         <v>40.5</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="n">
+    </row>
+    <row r="8" s="10" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="D8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="n">
         <f aca="false">C8*D8</f>
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="n">
+    </row>
+    <row r="9" s="10" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="n">
+      <c r="D9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="n">
         <f aca="false">C9*D9</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="n">
         <v>12.96</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="n">
+      <c r="D10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="n">
         <f aca="false">C10*D10</f>
         <v>12.96</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <f aca="false">SUM(E3:E10)</f>
-        <v>334.46</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <f aca="false">C11*D11</f>
+        <v>42</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>73</v>
+      </c>
+      <c r="D12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">C12*D12</f>
+        <v>73</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <f aca="false">SUM(E3:E12)</f>
+        <v>449.46</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" location="torque-limiting-couplings/=124vc8c" display="http://www.mcmaster.com/#torque-limiting-couplings/=124vc8c"/>
     <hyperlink ref="B4" r:id="rId2" display="http://www.vexrobotics.com/vexpro/motion/gearboxes/versaplanetary.html"/>
+    <hyperlink ref="B12" r:id="rId3" location="catalog/123/1460/=15xz4mo" display="3461T633 18-8 Stainless Steel Wire"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
